--- a/practical/utils/xxx.xlsx
+++ b/practical/utils/xxx.xlsx
@@ -7,7 +7,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="title" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="11" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="title" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -359,4 +360,22 @@
   <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/practical/utils/xxx.xlsx
+++ b/practical/utils/xxx.xlsx
@@ -1,39 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\operating\practical\utils\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19515" windowHeight="7545"/>
   </bookViews>
   <sheets>
-    <sheet name="11" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="title" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="title" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>你好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,15 +63,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -345,37 +369,491 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>13</v>
+      </c>
+      <c r="O3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4">
+        <v>13</v>
+      </c>
+      <c r="O4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>13</v>
+      </c>
+      <c r="O6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>43082.084178240744</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <v>13</v>
+      </c>
+      <c r="O7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>11</v>
+      </c>
+      <c r="M8">
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <v>13</v>
+      </c>
+      <c r="O8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>11</v>
+      </c>
+      <c r="M9">
+        <v>12</v>
+      </c>
+      <c r="N9">
+        <v>13</v>
+      </c>
+      <c r="O9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>11</v>
+      </c>
+      <c r="M10">
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <v>13</v>
+      </c>
+      <c r="O10">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>